--- a/testData/Data.xlsx
+++ b/testData/Data.xlsx
@@ -351,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="A2:AD2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7.3</v>
       </c>
@@ -390,81 +390,6 @@
         <v>4.3</v>
       </c>
       <c r="E2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F2">
-        <v>7.3</v>
-      </c>
-      <c r="G2">
-        <v>6.3</v>
-      </c>
-      <c r="H2">
-        <v>5.3</v>
-      </c>
-      <c r="I2">
-        <v>4.3</v>
-      </c>
-      <c r="J2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K2">
-        <v>7.3</v>
-      </c>
-      <c r="L2">
-        <v>6.3</v>
-      </c>
-      <c r="M2">
-        <v>5.3</v>
-      </c>
-      <c r="N2">
-        <v>4.3</v>
-      </c>
-      <c r="O2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P2">
-        <v>7.3</v>
-      </c>
-      <c r="Q2">
-        <v>6.3</v>
-      </c>
-      <c r="R2">
-        <v>5.3</v>
-      </c>
-      <c r="S2">
-        <v>4.3</v>
-      </c>
-      <c r="T2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="U2">
-        <v>7.3</v>
-      </c>
-      <c r="V2">
-        <v>6.3</v>
-      </c>
-      <c r="W2">
-        <v>5.3</v>
-      </c>
-      <c r="X2">
-        <v>4.3</v>
-      </c>
-      <c r="Y2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Z2">
-        <v>7.3</v>
-      </c>
-      <c r="AA2">
-        <v>6.3</v>
-      </c>
-      <c r="AB2">
-        <v>5.3</v>
-      </c>
-      <c r="AC2">
-        <v>4.3</v>
-      </c>
-      <c r="AD2">
         <v>8.3000000000000007</v>
       </c>
     </row>
